--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/128.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/128.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1693119554101375</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605538740064574</v>
+        <v>-1.605603274848547</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04260307440652484</v>
+        <v>-0.04255427981376452</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1486352984938244</v>
+        <v>-0.1487753861956201</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1744939733025329</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.587956159470085</v>
+        <v>-1.588058470712969</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07257239847608994</v>
+        <v>-0.0724921235009036</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1228780495928599</v>
+        <v>-0.1230417475814752</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1886058902919985</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.636480807951103</v>
+        <v>-1.636576036107942</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1203486008649297</v>
+        <v>-0.1202588817750156</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.118083587349378</v>
+        <v>-0.1182268230894164</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2038748198992436</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.730346651240309</v>
+        <v>-1.73043322229198</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1475051527647305</v>
+        <v>-0.1474406179807571</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1291048692367254</v>
+        <v>-0.1292654191870981</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2076476051746441</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760060984212223</v>
+        <v>-1.760074363374754</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1091573249124818</v>
+        <v>-0.1091415847212688</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1190453130324927</v>
+        <v>-0.1191901227916524</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1916051706265176</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.619682088879021</v>
+        <v>-1.619618341104609</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04463985514948793</v>
+        <v>-0.04462411495827492</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1196969569487112</v>
+        <v>-0.1198260265166579</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1563593221440313</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332227633861044</v>
+        <v>-1.332240226014014</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007947895412847598</v>
+        <v>-0.007842436131720452</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1152440568545516</v>
+        <v>-0.1154203469961373</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1053563605580432</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9124989079654416</v>
+        <v>-0.9126232554760244</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005470389315920315</v>
+        <v>-0.005204380084420499</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07509555112753494</v>
+        <v>-0.07527656332648451</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03931298546965897</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3881207337806027</v>
+        <v>-0.3884135013371646</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05080528804762272</v>
+        <v>-0.05046844795566438</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02761211629525709</v>
+        <v>-0.02778053634123626</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.042649038375167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1743266668720146</v>
+        <v>0.1739189959195978</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1077328376077047</v>
+        <v>-0.1072354475653737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0545217754733341</v>
+        <v>0.05434705935086973</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1389650065945846</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8514256203201741</v>
+        <v>0.850838511187929</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2348112713659157</v>
+        <v>-0.234169071564425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1341750131067554</v>
+        <v>0.1339735386592289</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.245864404494748</v>
       </c>
       <c r="E13" t="n">
-        <v>1.542758428682256</v>
+        <v>1.542054842135034</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4376802998338762</v>
+        <v>-0.4369263446747731</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2528891092543746</v>
+        <v>0.252676616672999</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3534651311002427</v>
       </c>
       <c r="E14" t="n">
-        <v>2.264518600678201</v>
+        <v>2.263687518582154</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6675862547484185</v>
+        <v>-0.666788227053919</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3731756505041731</v>
+        <v>0.3729159373491585</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4508989053310602</v>
       </c>
       <c r="E15" t="n">
-        <v>2.995187720900708</v>
+        <v>2.994227569236715</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9139226082606581</v>
+        <v>-0.9130151862372283</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4851970173480218</v>
+        <v>0.484915267925309</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5392718491907103</v>
       </c>
       <c r="E16" t="n">
-        <v>3.615821886410448</v>
+        <v>3.614849142593484</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.1948716422503</v>
+        <v>-1.193741496521206</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6292040267558218</v>
+        <v>0.6288136700137391</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6273119846963318</v>
       </c>
       <c r="E17" t="n">
-        <v>4.208838312417845</v>
+        <v>4.207763257357998</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.447059411845975</v>
+        <v>-1.445751401956174</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7784446497419464</v>
+        <v>0.7780259606556804</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7180418412029888</v>
       </c>
       <c r="E18" t="n">
-        <v>4.737740217557303</v>
+        <v>4.736682476707789</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.687434954945849</v>
+        <v>-1.686061623262514</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9142384273747993</v>
+        <v>0.9137662216384091</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8054357296320287</v>
       </c>
       <c r="E19" t="n">
-        <v>5.167447437672391</v>
+        <v>5.166355068402208</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.974551782862307</v>
+        <v>-1.973039937496298</v>
       </c>
       <c r="G19" t="n">
-        <v>1.059200866389229</v>
+        <v>1.058676718021836</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8816809578791324</v>
       </c>
       <c r="E20" t="n">
-        <v>5.504863620629134</v>
+        <v>5.503774399397194</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.227536793142921</v>
+        <v>-2.225967496078984</v>
       </c>
       <c r="G20" t="n">
-        <v>1.20987699481398</v>
+        <v>1.209354420465708</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9439800603518206</v>
       </c>
       <c r="E21" t="n">
-        <v>5.789609975748913</v>
+        <v>5.788511310402246</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.448969016117941</v>
+        <v>-2.447344628384759</v>
       </c>
       <c r="G21" t="n">
-        <v>1.347238495491648</v>
+        <v>1.346733235353711</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9917785187696958</v>
       </c>
       <c r="E22" t="n">
-        <v>5.996248780012389</v>
+        <v>5.995205205334967</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.654590217019495</v>
+        <v>-2.652948515075979</v>
       </c>
       <c r="G22" t="n">
-        <v>1.462390586367764</v>
+        <v>1.461847549770915</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.022301665448325</v>
       </c>
       <c r="E23" t="n">
-        <v>6.134978103306468</v>
+        <v>6.133847957577374</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.775574835749591</v>
+        <v>-2.773989798494441</v>
       </c>
       <c r="G23" t="n">
-        <v>1.56153332876113</v>
+        <v>1.561007606374616</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.032926139457865</v>
       </c>
       <c r="E24" t="n">
-        <v>6.238902715790346</v>
+        <v>6.237723775468492</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.849839418921239</v>
+        <v>-2.848350396832489</v>
       </c>
       <c r="G24" t="n">
-        <v>1.609328419379426</v>
+        <v>1.608802696992911</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.022920058380635</v>
       </c>
       <c r="E25" t="n">
-        <v>6.256848107792295</v>
+        <v>6.255653427279228</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.927860398725872</v>
+        <v>-2.926362719531954</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660674497135376</v>
+        <v>1.660224327666683</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9945487177094117</v>
       </c>
       <c r="E26" t="n">
-        <v>6.245916544994862</v>
+        <v>6.244745474768614</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.989334502517831</v>
+        <v>-2.987891913993159</v>
       </c>
       <c r="G26" t="n">
-        <v>1.679240052671117</v>
+        <v>1.678791457221546</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9525112985140186</v>
       </c>
       <c r="E27" t="n">
-        <v>6.150224052515386</v>
+        <v>6.149057704346503</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.003833579653692</v>
+        <v>-3.002459460960797</v>
       </c>
       <c r="G27" t="n">
-        <v>1.685819452598154</v>
+        <v>1.685377153225069</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9017777849568009</v>
       </c>
       <c r="E28" t="n">
-        <v>5.9867023540417</v>
+        <v>5.985630447020095</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.013845128274725</v>
+        <v>-3.012501702954695</v>
       </c>
       <c r="G28" t="n">
-        <v>1.671857902992217</v>
+        <v>1.671451806058921</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8465431774958192</v>
       </c>
       <c r="E29" t="n">
-        <v>5.816733473247167</v>
+        <v>5.815718230913928</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.971579566829559</v>
+        <v>-2.970298315264821</v>
       </c>
       <c r="G29" t="n">
-        <v>1.634939284502109</v>
+        <v>1.634534761587935</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7897886270573842</v>
       </c>
       <c r="E30" t="n">
-        <v>5.624419817006649</v>
+        <v>5.623483275629475</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.943533694126224</v>
+        <v>-2.94233114351755</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56556281771166</v>
+        <v>1.565200793313761</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7330743337238762</v>
       </c>
       <c r="E31" t="n">
-        <v>5.385556119272785</v>
+        <v>5.384682538660463</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.843899857767011</v>
+        <v>-2.84283345981233</v>
       </c>
       <c r="G31" t="n">
-        <v>1.491086528968197</v>
+        <v>1.490721356532055</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6763640934333337</v>
       </c>
       <c r="E32" t="n">
-        <v>5.153876244808536</v>
+        <v>5.153004238215336</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.782154235676628</v>
+        <v>-2.781075245568976</v>
       </c>
       <c r="G32" t="n">
-        <v>1.417793902603951</v>
+        <v>1.417450766435508</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6191591818592672</v>
       </c>
       <c r="E33" t="n">
-        <v>4.859677904865346</v>
+        <v>4.85883580463545</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.658923491660437</v>
+        <v>-2.657918480451486</v>
       </c>
       <c r="G33" t="n">
-        <v>1.344409983130671</v>
+        <v>1.34408258715344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5601210708426042</v>
       </c>
       <c r="E34" t="n">
-        <v>4.600488898218126</v>
+        <v>4.599750683250235</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.582582777267792</v>
+        <v>-2.581605311393464</v>
       </c>
       <c r="G34" t="n">
-        <v>1.243765626495584</v>
+        <v>1.243460266786051</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4984807338237366</v>
       </c>
       <c r="E35" t="n">
-        <v>4.28761167336246</v>
+        <v>4.286986787771304</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.509794624031924</v>
+        <v>-2.508867526769478</v>
       </c>
       <c r="G35" t="n">
-        <v>1.152195490094795</v>
+        <v>1.151896426461748</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4352982153992774</v>
       </c>
       <c r="E36" t="n">
-        <v>3.948599435016718</v>
+        <v>3.948042232247778</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.414142269040042</v>
+        <v>-2.413240356083536</v>
       </c>
       <c r="G36" t="n">
-        <v>1.073286763505749</v>
+        <v>1.073063252790524</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3714705894393494</v>
       </c>
       <c r="E37" t="n">
-        <v>3.665551446528822</v>
+        <v>3.665052482467369</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.345838496280759</v>
+        <v>-2.344946027438982</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9864292403541342</v>
+        <v>0.9861899894476964</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3081773355093908</v>
       </c>
       <c r="E38" t="n">
-        <v>3.366972611371052</v>
+        <v>3.366616883049638</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.277999846171821</v>
+        <v>-2.277143579769833</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8974515134461275</v>
+        <v>0.8972516130177224</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2471238015911309</v>
       </c>
       <c r="E39" t="n">
-        <v>3.049746371683232</v>
+        <v>3.049448882069306</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.201165676784649</v>
+        <v>-2.200353482918058</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8095535636553333</v>
+        <v>0.8093804215519902</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.1887069300436023</v>
       </c>
       <c r="E40" t="n">
-        <v>2.769265608382178</v>
+        <v>2.768939786424069</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.127089975907557</v>
+        <v>-2.126262828859313</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7429489445374946</v>
+        <v>0.7427899686062432</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1333861453639399</v>
       </c>
       <c r="E41" t="n">
-        <v>2.472890399994228</v>
+        <v>2.47258976234206</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.067839961133996</v>
+        <v>-2.067081283917529</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6851761467092742</v>
+        <v>0.6850517991986914</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.0817883597343745</v>
       </c>
       <c r="E42" t="n">
-        <v>2.197611769889073</v>
+        <v>2.197397703288576</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.982761866599011</v>
+        <v>-1.982076381271685</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6138809506099595</v>
+        <v>0.6137896575009241</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.0340221526792275</v>
       </c>
       <c r="E43" t="n">
-        <v>1.945065123933741</v>
+        <v>1.944893555849519</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.919620876557595</v>
+        <v>-1.918901549819161</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5431539754134345</v>
+        <v>0.5430359239793369</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.009166783217705442</v>
       </c>
       <c r="E44" t="n">
-        <v>1.742791074693632</v>
+        <v>1.742589600246106</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.868458959038837</v>
+        <v>-1.867753798472495</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4765792626589005</v>
+        <v>0.4764470450527113</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.04798220941201654</v>
       </c>
       <c r="E45" t="n">
-        <v>1.531392436607343</v>
+        <v>1.531285403307095</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.783481601727616</v>
+        <v>-1.782788246304684</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4257856656145274</v>
+        <v>0.4256770582951576</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.08324529520401155</v>
       </c>
       <c r="E46" t="n">
-        <v>1.334888741465923</v>
+        <v>1.334754949840612</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.724413386162566</v>
+        <v>-1.723743641026452</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3746961529753496</v>
+        <v>0.3746206000575272</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1153462733164439</v>
       </c>
       <c r="E47" t="n">
-        <v>1.180932357192381</v>
+        <v>1.180831619968618</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.693298176172694</v>
+        <v>-1.692637875151308</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3261392371023447</v>
+        <v>0.3260211856682471</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1450695353450051</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004816931729169</v>
+        <v>1.004750822926074</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.630589254380074</v>
+        <v>-1.6299187222344</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2555303133399172</v>
+        <v>0.2554516123838521</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1729023661424725</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8584174132569917</v>
+        <v>0.8583450083774119</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.580275733167698</v>
+        <v>-1.579603627002902</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2210388323348552</v>
+        <v>0.2209554093214262</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1985016269820593</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7588512597199955</v>
+        <v>0.7587678367065666</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.528836001274031</v>
+        <v>-1.528130053698127</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1790156698343694</v>
+        <v>0.1789196546679701</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2216311694258723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6436550963084833</v>
+        <v>0.6436047276966017</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.491355457957619</v>
+        <v>-1.490647936362594</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1448783431316001</v>
+        <v>0.1447776059078368</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2416144217090635</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5355734993252503</v>
+        <v>0.5354617439676379</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.447884984875097</v>
+        <v>-1.447193990480846</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1059796085868962</v>
+        <v>0.1059245179176507</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2582435787878605</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4662568452614106</v>
+        <v>0.4660837031580675</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.408838292532991</v>
+        <v>-1.408169334406438</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0737531410973859</v>
+        <v>0.07367129210307827</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2721673640008554</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3737659076746609</v>
+        <v>0.3735392489211936</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.356115735055464</v>
+        <v>-1.355391686259665</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04325337258394248</v>
+        <v>0.04318411574260524</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2844159536385073</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2827671402149042</v>
+        <v>0.2824822427539488</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.324594428132296</v>
+        <v>-1.323865657279134</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009177432626903886</v>
+        <v>0.009152248320963076</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2961722933903407</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2182732807387298</v>
+        <v>0.2179395886850141</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.304573691918912</v>
+        <v>-1.303826032836294</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008520838373001048</v>
+        <v>-0.008583799137853076</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3087145992336688</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1422686194284835</v>
+        <v>0.1419223352217974</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.311617427486732</v>
+        <v>-1.310875277471039</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04438643807095852</v>
+        <v>-0.04444782481668925</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.32283581303589</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0787726880752138</v>
+        <v>0.07840436760082943</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.292330971193435</v>
+        <v>-1.291619514550607</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07471149046193758</v>
+        <v>-0.0747807473032748</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3393412983577482</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04097261887717778</v>
+        <v>0.0405586518482757</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.302524319022978</v>
+        <v>-1.301782169007285</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09944562693405658</v>
+        <v>-0.0994959955459382</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3588129493528302</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.01385676319421038</v>
+        <v>-0.0143494311791775</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.307186563660271</v>
+        <v>-1.306490060199095</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1044950802751892</v>
+        <v>-0.1045706331930116</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3810490809769402</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.05293808395698515</v>
+        <v>-0.05345593624789308</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.287471187156419</v>
+        <v>-1.286802229029866</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1355378853854813</v>
+        <v>-0.1356008461503334</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4055034289896923</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1069930486206934</v>
+        <v>-0.1075360852175421</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.3118920938234</v>
+        <v>-1.311207395505634</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.143398536877257</v>
+        <v>-0.1434725157759581</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4313390680791527</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1509239222961956</v>
+        <v>-0.1514795510460147</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.35136770637606</v>
+        <v>-1.350652314685429</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1620302012160932</v>
+        <v>-0.1620805698279748</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4575817681225586</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2068614138289794</v>
+        <v>-0.2075225018599257</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.392324470921865</v>
+        <v>-1.391579172867929</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1781324168269993</v>
+        <v>-0.1782205618977921</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.483997635258835</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2608203633262883</v>
+        <v>-0.2615475601603292</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.425221470557049</v>
+        <v>-1.424467515397946</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2034426442975143</v>
+        <v>-0.2035197712344581</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5100372300345913</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3273116530673932</v>
+        <v>-0.327996351385159</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.467895489964193</v>
+        <v>-1.467182459302243</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2096002071000426</v>
+        <v>-0.2096820560943503</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.535189910113019</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3156843738183451</v>
+        <v>-0.3164556431877824</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.514436874352372</v>
+        <v>-1.513738796872075</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2427553458711203</v>
+        <v>-0.2428466389801557</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5591364149066671</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3417328162567502</v>
+        <v>-0.3424159405553946</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.544320414379826</v>
+        <v>-1.543577477354572</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2529911922169387</v>
+        <v>-0.2530746152303676</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.581123678938265</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3697157281952338</v>
+        <v>-0.3704051485703635</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.603176924373062</v>
+        <v>-1.60238755378373</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2585443316768875</v>
+        <v>-0.2586025703843756</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6006363080550103</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3960286058460174</v>
+        <v>-0.3967038600490554</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.621546514528202</v>
+        <v>-1.620774458149204</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2688824892655904</v>
+        <v>-0.2689407279730786</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6175224334776254</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4020602471188416</v>
+        <v>-0.4026961508438471</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.65899872550043</v>
+        <v>-1.658166856394823</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2873095311186576</v>
+        <v>-0.2873567516922966</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6316696172541518</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3999117110182662</v>
+        <v>-0.4005255784755735</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.691398335093284</v>
+        <v>-1.690555447853827</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2848052666966682</v>
+        <v>-0.2848383210982155</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6429652190124395</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3600024561976872</v>
+        <v>-0.3605738251387194</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.716780180433818</v>
+        <v>-1.715966412548106</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2866201107435279</v>
+        <v>-0.2866185367244066</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6512149335605465</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3185805690015384</v>
+        <v>-0.3191582340190557</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.749116042252259</v>
+        <v>-1.748311718481274</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.291420869063495</v>
+        <v>-0.2914334612164654</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.656091625867935</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2543841991392898</v>
+        <v>-0.2548989033919551</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.768551243352519</v>
+        <v>-1.767731179390321</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2946255719944632</v>
+        <v>-0.2946051097458863</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6571321420117758</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1465953697126187</v>
+        <v>-0.1470974818123136</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.776785724385604</v>
+        <v>-1.775968808461649</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2773208057748834</v>
+        <v>-0.2772751592203657</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6540355578198781</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05942461675586529</v>
+        <v>-0.0598936744540129</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.763087822982484</v>
+        <v>-1.76227169406809</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2636331354960526</v>
+        <v>-0.2635591565973515</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6463175136194272</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07633610647544033</v>
+        <v>0.07592686150390215</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.767037036957828</v>
+        <v>-1.766224056081676</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2353291236568237</v>
+        <v>-0.2352173682992113</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6333433978905519</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2040221116144734</v>
+        <v>0.2036254587959057</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.795977739531623</v>
+        <v>-1.795166332674592</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2189420105849622</v>
+        <v>-0.2188444213994415</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6149950904824759</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3503177448246446</v>
+        <v>0.349911647891349</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.7540553142549</v>
+        <v>-1.753315525267889</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1924701570029272</v>
+        <v>-0.1923505315497084</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5912666861677024</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4808369843820189</v>
+        <v>0.4804812560606049</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.73345848704312</v>
+        <v>-1.732813139203387</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1640732780355415</v>
+        <v>-0.1639678187544144</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5629935984551404</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6584209696854051</v>
+        <v>0.65799126246529</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.694906823714663</v>
+        <v>-1.694329945706706</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1382939928668789</v>
+        <v>-0.1382011257387221</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5306495197697076</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8324398016790452</v>
+        <v>0.832066759147297</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.626815543536756</v>
+        <v>-1.626321301532667</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1186848626537149</v>
+        <v>-0.11853375681807</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.494080085723798</v>
       </c>
       <c r="E84" t="n">
-        <v>1.013363855557831</v>
+        <v>1.01293887039508</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.548628504714826</v>
+        <v>-1.548228703858016</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1025527406795041</v>
+        <v>-0.1023780245570398</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4536996747978131</v>
       </c>
       <c r="E85" t="n">
-        <v>1.15967995101658</v>
+        <v>1.159182560974249</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.443852347886325</v>
+        <v>-1.443489536478865</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0818858696168261</v>
+        <v>-0.0816607848824801</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4098365023984661</v>
       </c>
       <c r="E86" t="n">
-        <v>1.321951878307953</v>
+        <v>1.321506430896624</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.327930561659893</v>
+        <v>-1.327647238218059</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05175914363513094</v>
+        <v>-0.05153405890078494</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3625458422788069</v>
       </c>
       <c r="E87" t="n">
-        <v>1.461675981686693</v>
+        <v>1.461172295567877</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.198432073502682</v>
+        <v>-1.19818731352932</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02760896825701449</v>
+        <v>-0.02736971735057678</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3130197915574285</v>
       </c>
       <c r="E88" t="n">
-        <v>1.553568792007349</v>
+        <v>1.553161121054932</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.053625462381261</v>
+        <v>-1.053456255325721</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01369463922471641</v>
+        <v>-0.01347112850949171</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2623580001526969</v>
       </c>
       <c r="E89" t="n">
-        <v>1.658192268981084</v>
+        <v>1.657748395588877</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9095082716349704</v>
+        <v>-0.9094563290039674</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01067432481126084</v>
+        <v>0.01091987179418375</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2129796206711589</v>
       </c>
       <c r="E90" t="n">
-        <v>1.702359245524782</v>
+        <v>1.701927964285545</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7201144208644651</v>
+        <v>-0.7201946958396515</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01254740756560866</v>
+        <v>0.01282915698832148</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1685647671939286</v>
       </c>
       <c r="E91" t="n">
-        <v>1.721508762154526</v>
+        <v>1.721186088234659</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5354268872666489</v>
+        <v>-0.5355229024330482</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.006238510647115051</v>
+        <v>-0.005996111702434744</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1336189325944201</v>
       </c>
       <c r="E92" t="n">
-        <v>1.694577294989071</v>
+        <v>1.694290823508994</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3721161073552173</v>
+        <v>-0.3722719352482261</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.009314144010136595</v>
+        <v>-0.009041838702151575</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.112456617338713</v>
       </c>
       <c r="E93" t="n">
-        <v>1.651992207662281</v>
+        <v>1.651756104794086</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2198801259812574</v>
+        <v>-0.2200564161228431</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02531719641640069</v>
+        <v>-0.02509211168205469</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1067451078826195</v>
       </c>
       <c r="E94" t="n">
-        <v>1.554428206447579</v>
+        <v>1.554239324153023</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08202595731862186</v>
+        <v>-0.08224159793824005</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03132837544064802</v>
+        <v>-0.03109699462981681</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.11406050721367</v>
       </c>
       <c r="E95" t="n">
-        <v>1.484423706027731</v>
+        <v>1.484248989905266</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0247728140807511</v>
+        <v>0.02457448767146721</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06723804767400191</v>
+        <v>-0.06702712911174762</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1294171543721352</v>
       </c>
       <c r="E96" t="n">
-        <v>1.4006685745642</v>
+        <v>1.400520616766798</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1063195967170971</v>
+        <v>0.106099234040115</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09637471562839894</v>
+        <v>-0.09616064902790204</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.14452998188287</v>
       </c>
       <c r="E97" t="n">
-        <v>1.321068853580903</v>
+        <v>1.320969690376261</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1695888693168996</v>
+        <v>0.1693858208502518</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1157020964188501</v>
+        <v>-0.115465993550655</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1543984367345191</v>
       </c>
       <c r="E98" t="n">
-        <v>1.225941433965975</v>
+        <v>1.225798198225936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2022151376632202</v>
+        <v>0.2019900529288742</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1366349767130279</v>
+        <v>-0.1364224841316523</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1578023906076796</v>
       </c>
       <c r="E99" t="n">
-        <v>1.139431769040167</v>
+        <v>1.139285385261886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2234281933609896</v>
+        <v>0.2232424591046761</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1391172048673191</v>
+        <v>-0.1389188784580352</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1590766672992454</v>
       </c>
       <c r="E100" t="n">
-        <v>1.051436230063852</v>
+        <v>1.051308734515027</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2354017568167239</v>
+        <v>0.2352144485412891</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1536548454716523</v>
+        <v>-0.1534533710241258</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1608034154089684</v>
       </c>
       <c r="E101" t="n">
-        <v>0.960977351162702</v>
+        <v>0.9608734659006961</v>
       </c>
       <c r="F101" t="n">
-        <v>0.228696435359983</v>
+        <v>0.2284414442623323</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1671583555132909</v>
+        <v>-0.1669411408745514</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1721810320488391</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9003335424572291</v>
+        <v>0.9002611375776493</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2350397324188248</v>
+        <v>0.2347973334741445</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1923395134158593</v>
+        <v>-0.1921065585859068</v>
       </c>
     </row>
   </sheetData>
